--- a/public/iOSSdk_case.xlsx
+++ b/public/iOSSdk_case.xlsx
@@ -4,13 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19820" tabRatio="500"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="25620" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="iOS_sdk" sheetId="1" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">iOS_sdk!$H$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$H$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="434">
   <si>
     <t>用例描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,9 +64,6 @@
     <t>手机号码格式错误</t>
   </si>
   <si>
-    <t>验证失败</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -99,10 +101,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//XCUIElementTypeOther[1]/XCUIElementTypeOther[2]/XCUIElementTypeStaticText[2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>click</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,17 +166,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//XCUIElementTypeOther[1]/XCUIElementTypeOther[1]/XCUIElementTypeTextField[1]</t>
-  </si>
-  <si>
-    <t>//XCUIElementTypeOther[1]/XCUIElementTypeOther[1]/XCUIElementTypeTextField[1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1371147745</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>手机号码格式错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,10 +174,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>137114774535</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>游客登陆，绑定手机,手机号输入为11位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -207,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17012345678</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击下一步</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,10 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//XCUIElementTypeOther[1]/XCUIElementTypeOther[2]/XCUIElementTypeTextField[1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>123456</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -239,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>验证失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击返回按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -259,14 +230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//XCUIElementTypeOther[1]/XCUIElementTypeOther[2]/XCUIElementTypeStaticText[1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看游客登录title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>游客登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -350,10 +313,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>17012225577</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>游客登陆，绑定手机,手机号输入为空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -370,10 +329,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>13143070126</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>输入过期验证码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -385,15 +340,142 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>查看提示文案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeStaticText[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17912345678</t>
+  </si>
+  <si>
+    <t>17912345678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>//*[@value='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入验证码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13727251949</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>test_101</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>进入用户协议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>登录即表示你同意《用户协议》</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>点击用户协议</t>
+    <r>
+      <t>//*[@value='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入验证码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>']</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_102</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -401,54 +483,1350 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>查看用户协议,返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入手机号']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，输入11位数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17912345678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发送验证码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入验证码']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，正确手机号，错误验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，正确手机号，正确验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，正确手机号，过期验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13727251949</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码过期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入登录密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入登录密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self.yanzhengma()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提 交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，密码与确认密码为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入密码(不少于6个字符)']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请确认密码']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码要6个以上字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入游戏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，输入10位数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，输入12位数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，正确手机号，验证码为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，密码与确认少于6位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，密码与确认不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，密码与确认一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入手机号']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号注册，返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='3 ~ 15字，数字、英文或中文']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码要6个以上字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码要6个以上字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_204</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwerty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwerty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已被注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名已被注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwertyuio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_206</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我爱你哦12345qwert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwerty1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwert123456789!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwertyuio12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwertyuiop123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwertyuiop12345678901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-15个字符，数字、字母或中文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名格式错误(必须全部由字母、数字、中划线或下划线字符构成)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qwerty123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入要绑定的手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入要绑定的手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，输入3位数字，密码5位数字，确认密码与密码一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">账号注册，输入4位数字（用户名已被使用），密码6位字母，确认密码与密码一致      </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，输入9位字母，密码为空，确认密码与密码不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，输入14位（中英数），密码7位（英数），确认密码为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，输入15位（英数符），密码11位（英数），确认密码与密码一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，注册成功，进入绑定手机界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号注册，输入16位（英数），密码21位（英数），确认密码与密码一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_302</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_303</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入手机号']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，手机号输12位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_304</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，手机号输11位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17912345678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发送验证码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_305</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_307</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入验证码']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，正确手机号,过期验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13143670126</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码过期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码过期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_308</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_309</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，正确手机号,正确验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入新密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入新密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_310</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self.yanzhengma</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认密码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入密码(不少于6个字符)']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请确认密码(不少于6个字符)']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，密码输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码要6个以上字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_311</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_312</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次密码不一样</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no toast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_314</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[1]/XCUIElementTypeTextField[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找游客登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素为空(None)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，手机号输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，手机号输10位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，正确手机号，空验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，正确手机号,错误验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，密码与确认密码少于6位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，密码与确认密码不一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忘记密码，密码与确认密码一致</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码后登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeOther[2]/XCUIElementTypeSecureTextField[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登  录</t>
+  </si>
+  <si>
+    <t>test_401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbzjtest_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请输入密码</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或者密码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或者密码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_404</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbzjtest1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mbzjtest_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_405</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_407</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素为空（None）</t>
+  </si>
+  <si>
+    <t>正确账号，正确密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_408</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>up down</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素为空（None）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择列表中的账号登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面，点击左上角X按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素为空（None）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号输入不为空，密码为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_403</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确账号，错误密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误账号，正确密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确账号，密码少于6位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_406</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTable/XCUIElementTypeCell/XCUIElementTypeStaticText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_501</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录</t>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_502</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录</t>
+    </r>
+  </si>
+  <si>
+    <t>登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF667788"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登  录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素为空（None）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_503</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendorLogin weixin</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_504</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，微博取消登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择微博</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendorLogin weibo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_505</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，QQ取消登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择QQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vendorLogin QQ</t>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，微信登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_507</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，微博登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_508</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，QQ登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，点击左上角X按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方登录，微信取消登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 账号登录</t>
+  </si>
+  <si>
+    <t>返回 账号登录</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 账号登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 账号登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机后，可以在更换设备或重装系统或游戏时，使用手机登录。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看游客登录提示文案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素不为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发送验证码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>任玩游戏帐号服务条款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>任玩游戏帐号服务条款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>test_102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录即表示你同意《用户协议》</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>忘记密码按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看用户协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户协议界面，返回登录界面</t>
+    <t>用户协议服务条款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +1834,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -534,6 +1912,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -557,7 +1942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="477">
+  <cellStyleXfs count="805">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1035,8 +2420,336 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1051,10 +2764,34 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1066,12 +2803,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="477">
+  <cellStyles count="805">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -1283,6 +3022,170 @@
     <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -1547,6 +3450,170 @@
     <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="804" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
@@ -1879,19 +3946,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" customWidth="1"/>
-    <col min="7" max="7" width="86.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="62" style="3" customWidth="1"/>
+    <col min="7" max="7" width="40.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="43" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1921,1082 +3988,967 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>66</v>
+      <c r="A2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="B7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22"/>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22"/>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22"/>
+      <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="D5" t="s">
+      <c r="G12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22"/>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="11"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>44</v>
+      <c r="A16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="22"/>
       <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="20"/>
+      <c r="B19" s="22"/>
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="22"/>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="11"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="20"/>
+      <c r="B22" s="22"/>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22"/>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22"/>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="20"/>
+      <c r="B27" s="22"/>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="20"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="20"/>
+      <c r="B29" s="22"/>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="11" t="s">
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="20"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="20"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="D24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="20"/>
+      <c r="B35" s="22"/>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="D27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="3" t="s">
+      <c r="G35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="20"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22"/>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="20"/>
+      <c r="B38" s="22"/>
+      <c r="D38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22"/>
+      <c r="D39" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="D29" t="s">
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="D32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="D38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="11"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="22"/>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>416</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>85</v>
+      <c r="A41" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>84</v>
+      <c r="G41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="6"/>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="13"/>
+      <c r="G42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="6" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" s="23"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
       <c r="C44" s="6"/>
       <c r="D44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="6"/>
       <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="20"/>
+      <c r="B47" s="22"/>
+      <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="20"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="20"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="20"/>
+      <c r="B50" s="22"/>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="20"/>
+      <c r="B51" s="22"/>
+      <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="F51" t="s">
         <v>15</v>
       </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" t="s">
-        <v>38</v>
-      </c>
-      <c r="F48" t="s">
-        <v>39</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D49" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
       <c r="G51" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="A52" s="12"/>
+      <c r="H52" s="12"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="D55" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55" t="s">
-        <v>105</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H55" s="15"/>
+      <c r="E55" s="2"/>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="D56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H56" s="15"/>
+      <c r="E56" s="2"/>
+      <c r="G56" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="H1"/>
-  <mergeCells count="39">
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="H16:H20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="H21:H25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="H26:H30"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="H31:H36"/>
+  <mergeCells count="33">
     <mergeCell ref="A46:A51"/>
     <mergeCell ref="B46:B51"/>
     <mergeCell ref="H46:H51"/>
@@ -3006,6 +4958,5086 @@
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="H41:H45"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H15"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="H4:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="42.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="D3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" t="s">
+        <v>424</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="D24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="D34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="D42" t="s">
+        <v>151</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="D43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="D47" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>298</v>
+      </c>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>150</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="26"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="D52" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>152</v>
+      </c>
+      <c r="H57" s="26"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="D58" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" s="26"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="D60" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" t="s">
+        <v>421</v>
+      </c>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="D61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G61" t="s">
+        <v>422</v>
+      </c>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="13"/>
+      <c r="H62" s="16"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="B63" s="13"/>
+      <c r="H63" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="H26:H30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="H31:H35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="H36:H40"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="H49:H53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="H54:H58"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>418</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>182</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="3"/>
+      <c r="D15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="3"/>
+      <c r="D27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="3"/>
+      <c r="D29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="3"/>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="3"/>
+      <c r="D35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" t="s">
+        <v>196</v>
+      </c>
+      <c r="F35" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" t="s">
+        <v>159</v>
+      </c>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="3"/>
+      <c r="D36" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>219</v>
+      </c>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="3"/>
+      <c r="D39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>196</v>
+      </c>
+      <c r="F40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G40" t="s">
+        <v>198</v>
+      </c>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" t="s">
+        <v>197</v>
+      </c>
+      <c r="G41" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="3"/>
+      <c r="D43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="3"/>
+      <c r="D46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E48" t="s">
+        <v>196</v>
+      </c>
+      <c r="F48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="3"/>
+      <c r="D50" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" t="s">
+        <v>226</v>
+      </c>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="3"/>
+      <c r="D53" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="3"/>
+      <c r="D54" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" t="s">
+        <v>196</v>
+      </c>
+      <c r="F55" t="s">
+        <v>197</v>
+      </c>
+      <c r="G55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" t="s">
+        <v>159</v>
+      </c>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="3"/>
+      <c r="D57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="3"/>
+      <c r="D58" t="s">
+        <v>231</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="3"/>
+      <c r="D59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H59" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="H52:H59"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="H38:H44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="H45:H51"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="H24:H30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="H31:H37"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="H10:H16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="H17:H23"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H6:H9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57:H60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>253</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" t="s">
+        <v>265</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E21" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>253</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" t="s">
+        <v>251</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="3"/>
+      <c r="D27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" t="s">
+        <v>248</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>274</v>
+      </c>
+      <c r="E31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>275</v>
+      </c>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="3"/>
+      <c r="D32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" t="s">
+        <v>248</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" t="s">
+        <v>270</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36" t="s">
+        <v>274</v>
+      </c>
+      <c r="E36" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>275</v>
+      </c>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="3"/>
+      <c r="D37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="3"/>
+      <c r="D38" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="3"/>
+      <c r="D40" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" t="s">
+        <v>291</v>
+      </c>
+      <c r="E43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>293</v>
+      </c>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>292</v>
+      </c>
+      <c r="E44" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="3"/>
+      <c r="D45" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D46" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>291</v>
+      </c>
+      <c r="E48" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>293</v>
+      </c>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" t="s">
+        <v>270</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>294</v>
+      </c>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="25"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="3"/>
+      <c r="D50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" t="s">
+        <v>290</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D53" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>293</v>
+      </c>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D54" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>294</v>
+      </c>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="3"/>
+      <c r="D55" t="s">
+        <v>295</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="3"/>
+      <c r="D56" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" t="s">
+        <v>311</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D58" t="s">
+        <v>313</v>
+      </c>
+      <c r="E58" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="3"/>
+      <c r="D59" t="s">
+        <v>314</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="3"/>
+      <c r="D60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="H47:H51"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="H24:H28"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="H29:H33"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="H5:H7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="D5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="3"/>
+      <c r="D12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>330</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>333</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="3"/>
+      <c r="D16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" t="s">
+        <v>313</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="D21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="3"/>
+      <c r="D24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="D25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E25" t="s">
+        <v>351</v>
+      </c>
+      <c r="F25" t="s">
+        <v>333</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>333</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="D27" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="D28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28" t="s">
+        <v>351</v>
+      </c>
+      <c r="F28" t="s">
+        <v>330</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>333</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="D30" t="s">
+        <v>314</v>
+      </c>
+      <c r="E30" t="s">
+        <v>351</v>
+      </c>
+      <c r="F30" t="s">
+        <v>330</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="H29:H30"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="D11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>333</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F13" t="s">
+        <v>375</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E14" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" t="s">
+        <v>375</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="D15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F16" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="3"/>
+      <c r="D17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" t="s">
+        <v>375</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E18" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="D19" t="s">
+        <v>411</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E20" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="3"/>
+      <c r="D21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" t="s">
+        <v>375</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="D23" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E24" t="s">
+        <v>374</v>
+      </c>
+      <c r="F24" t="s">
+        <v>375</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>394</v>
+      </c>
+      <c r="E25" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" t="s">
+        <v>375</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E26" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26" t="s">
+        <v>375</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="D27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E28" t="s">
+        <v>374</v>
+      </c>
+      <c r="F28" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="3"/>
+      <c r="D29" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" t="s">
+        <v>375</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E30" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" t="s">
+        <v>375</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="D31" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="H31" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="H16:H19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="H28:H31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/public/iOSSdk_case.xlsx
+++ b/public/iOSSdk_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="25620" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="10360" yWindow="1000" windowWidth="25620" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="5" r:id="rId5"/>
     <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'0'!$H$1:$H$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="542">
   <si>
     <t>用例描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -622,10 +623,6 @@
   </si>
   <si>
     <t>手机号注册，正确手机号，过期验证码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13727251949</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1829,12 +1826,449 @@
     <t>登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>登录即表示你同意《用户协议》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选自动登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto login</t>
+  </si>
+  <si>
+    <t>关闭登录界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击游戏确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登  录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_602</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击用户中心按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击X 按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心界面，点击右上角的X按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击游戏用户中心按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找切换账号按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_603</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入解绑与绑定，返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击解绑与绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑或绑定手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_604</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑手机，手机号输入框，清除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//XCUIElementTypeTextField</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='17912345678']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_605</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发送验证码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑手机，点击获取验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_606</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑手机号，验证输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击解绑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_607</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入验证码']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑手机号，输入错误验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑手机号，输入正确验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_608</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解绑成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，手机号输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_609</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_610</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791234567</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码格式错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入手机号']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_611</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，手机号输入12位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179123456789</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，手机号输入10位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_612</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，手机号输入11位数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17912345678</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发送验证码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求发送验证码成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_613</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，正确手机号，验证码为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，正确手机号，过期验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13727251949</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@value='请输入验证码']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机验证码过期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_614</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_615</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，正确手机号，错误验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_616</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号，正确手机号，正确验证码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1791</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登  录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找登录按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_617</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_618</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换账号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告确定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录，点击用户中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登  录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1919,6 +2353,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1942,7 +2386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="805">
+  <cellStyleXfs count="891">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2748,8 +3192,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2809,8 +3339,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="805">
+  <cellStyles count="891">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -3186,6 +3730,49 @@
     <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -3614,6 +4201,49 @@
     <cellStyle name="访问过的超链接" xfId="800" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="802" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="890" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
   </cellStyles>
@@ -3946,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
@@ -4366,7 +4996,7 @@
         <v>12</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4668,7 +5298,7 @@
         <v>12</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4709,7 +5339,7 @@
       <c r="A40" s="20"/>
       <c r="B40" s="22"/>
       <c r="D40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E40" t="s">
         <v>21</v>
@@ -4998,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:G58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5057,26 +5687,26 @@
         <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>98</v>
+        <v>433</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="D3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E3" t="s">
         <v>100</v>
       </c>
       <c r="F3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G3" t="s">
         <v>423</v>
-      </c>
-      <c r="G3" t="s">
-        <v>424</v>
       </c>
       <c r="H3" s="25"/>
     </row>
@@ -5199,7 +5829,7 @@
         <v>120</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
         <v>111</v>
@@ -5276,7 +5906,7 @@
         <v>124</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
         <v>111</v>
@@ -5387,7 +6017,7 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H19" s="25"/>
     </row>
@@ -5430,7 +6060,7 @@
         <v>142</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
@@ -5619,14 +6249,14 @@
         <v>111</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="3" t="s">
-        <v>144</v>
+        <v>515</v>
       </c>
       <c r="D32" t="s">
         <v>116</v>
@@ -5646,7 +6276,7 @@
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" t="s">
         <v>132</v>
@@ -5692,13 +6322,13 @@
         <v>102</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="25" t="s">
         <v>141</v>
@@ -5716,7 +6346,7 @@
         <v>111</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -5789,29 +6419,29 @@
         <v>102</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>157</v>
-      </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
@@ -5820,7 +6450,7 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H42" s="26"/>
     </row>
@@ -5828,7 +6458,7 @@
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
@@ -5837,32 +6467,32 @@
         <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E45" t="s">
         <v>117</v>
@@ -5871,7 +6501,7 @@
         <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H45" s="26"/>
     </row>
@@ -5879,10 +6509,10 @@
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
         <v>117</v>
@@ -5891,7 +6521,7 @@
         <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H46" s="26"/>
     </row>
@@ -5899,7 +6529,7 @@
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
@@ -5908,7 +6538,7 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H47" s="26"/>
     </row>
@@ -5916,7 +6546,7 @@
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="D48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
@@ -5925,32 +6555,32 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
         <v>117</v>
@@ -5959,7 +6589,7 @@
         <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H50" s="26"/>
     </row>
@@ -5967,10 +6597,10 @@
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
         <v>117</v>
@@ -5979,7 +6609,7 @@
         <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" s="26"/>
     </row>
@@ -5987,7 +6617,7 @@
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="D52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E52" t="s">
         <v>20</v>
@@ -5996,7 +6626,7 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H52" s="26"/>
     </row>
@@ -6004,7 +6634,7 @@
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
@@ -6013,32 +6643,32 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H54" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E55" t="s">
         <v>117</v>
@@ -6047,7 +6677,7 @@
         <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H55" s="26"/>
     </row>
@@ -6055,10 +6685,10 @@
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
         <v>117</v>
@@ -6067,7 +6697,7 @@
         <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H56" s="26"/>
     </row>
@@ -6075,7 +6705,7 @@
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
         <v>20</v>
@@ -6084,7 +6714,7 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H57" s="26"/>
     </row>
@@ -6092,7 +6722,7 @@
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
         <v>20</v>
@@ -6101,16 +6731,16 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H58" s="26"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D59" t="s">
         <v>111</v>
@@ -6125,14 +6755,14 @@
         <v>111</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="D60" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E60" t="s">
         <v>20</v>
@@ -6141,7 +6771,7 @@
         <v>102</v>
       </c>
       <c r="G60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H60" s="26"/>
     </row>
@@ -6149,16 +6779,16 @@
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="D61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E61" t="s">
         <v>186</v>
-      </c>
-      <c r="E61" t="s">
-        <v>187</v>
       </c>
       <c r="F61" t="s">
         <v>102</v>
       </c>
       <c r="G61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H61" s="26"/>
     </row>
@@ -6233,7 +6863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6274,10 +6904,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
@@ -6293,7 +6923,7 @@
         <v>111</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6301,7 +6931,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -6310,7 +6940,7 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H3" s="25"/>
     </row>
@@ -6319,7 +6949,7 @@
       <c r="B4" s="26"/>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -6328,7 +6958,7 @@
         <v>102</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H4" s="25"/>
     </row>
@@ -6337,7 +6967,7 @@
       <c r="B5" s="26"/>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
         <v>104</v>
@@ -6346,16 +6976,16 @@
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
@@ -6371,7 +7001,7 @@
         <v>111</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6379,7 +7009,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -6388,7 +7018,7 @@
         <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H7" s="25"/>
     </row>
@@ -6397,7 +7027,7 @@
       <c r="B8" s="26"/>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -6406,7 +7036,7 @@
         <v>102</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H8" s="25"/>
     </row>
@@ -6415,7 +7045,7 @@
       <c r="B9" s="26"/>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
         <v>104</v>
@@ -6424,16 +7054,16 @@
         <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
@@ -6449,7 +7079,7 @@
         <v>111</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6457,7 +7087,7 @@
       <c r="B11" s="26"/>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -6466,7 +7096,7 @@
         <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H11" s="25"/>
     </row>
@@ -6474,19 +7104,19 @@
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" t="s">
         <v>196</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>197</v>
-      </c>
-      <c r="G12" t="s">
-        <v>198</v>
       </c>
       <c r="H12" s="25"/>
     </row>
@@ -6494,19 +7124,19 @@
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" t="s">
         <v>195</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>196</v>
       </c>
-      <c r="F13" t="s">
-        <v>197</v>
-      </c>
       <c r="G13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H13" s="25"/>
     </row>
@@ -6514,19 +7144,19 @@
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" t="s">
         <v>196</v>
       </c>
-      <c r="F14" t="s">
-        <v>197</v>
-      </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H14" s="25"/>
     </row>
@@ -6535,7 +7165,7 @@
       <c r="B15" s="26"/>
       <c r="C15" s="3"/>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
         <v>20</v>
@@ -6544,7 +7174,7 @@
         <v>102</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H15" s="25"/>
     </row>
@@ -6552,10 +7182,10 @@
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
         <v>104</v>
@@ -6564,16 +7194,16 @@
         <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
@@ -6589,7 +7219,7 @@
         <v>111</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6597,7 +7227,7 @@
       <c r="B18" s="26"/>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -6606,7 +7236,7 @@
         <v>102</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H18" s="25"/>
     </row>
@@ -6614,19 +7244,19 @@
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" t="s">
         <v>196</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>197</v>
-      </c>
-      <c r="G19" t="s">
-        <v>198</v>
       </c>
       <c r="H19" s="25"/>
     </row>
@@ -6634,19 +7264,19 @@
       <c r="A20" s="25"/>
       <c r="B20" s="26"/>
       <c r="C20" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
         <v>195</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>196</v>
       </c>
-      <c r="F20" t="s">
-        <v>197</v>
-      </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H20" s="25"/>
     </row>
@@ -6654,19 +7284,19 @@
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
         <v>196</v>
       </c>
-      <c r="F21" t="s">
-        <v>197</v>
-      </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H21" s="25"/>
     </row>
@@ -6675,7 +7305,7 @@
       <c r="B22" s="26"/>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -6684,7 +7314,7 @@
         <v>102</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H22" s="25"/>
     </row>
@@ -6692,10 +7322,10 @@
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
         <v>104</v>
@@ -6704,16 +7334,16 @@
         <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
@@ -6729,7 +7359,7 @@
         <v>111</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6737,7 +7367,7 @@
       <c r="B25" s="26"/>
       <c r="C25" s="3"/>
       <c r="D25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -6746,7 +7376,7 @@
         <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H25" s="25"/>
     </row>
@@ -6754,19 +7384,19 @@
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" t="s">
         <v>196</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>197</v>
-      </c>
-      <c r="G26" t="s">
-        <v>198</v>
       </c>
       <c r="H26" s="25"/>
     </row>
@@ -6775,16 +7405,16 @@
       <c r="B27" s="26"/>
       <c r="C27" s="3"/>
       <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" t="s">
         <v>195</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>196</v>
       </c>
-      <c r="F27" t="s">
-        <v>197</v>
-      </c>
       <c r="G27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H27" s="25"/>
     </row>
@@ -6792,19 +7422,19 @@
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" t="s">
         <v>196</v>
       </c>
-      <c r="F28" t="s">
-        <v>197</v>
-      </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H28" s="25"/>
     </row>
@@ -6813,7 +7443,7 @@
       <c r="B29" s="26"/>
       <c r="C29" s="3"/>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -6822,7 +7452,7 @@
         <v>102</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H29" s="25"/>
     </row>
@@ -6830,10 +7460,10 @@
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E30" t="s">
         <v>104</v>
@@ -6842,16 +7472,16 @@
         <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" t="s">
@@ -6867,7 +7497,7 @@
         <v>111</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6875,7 +7505,7 @@
       <c r="B32" s="26"/>
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -6884,7 +7514,7 @@
         <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H32" s="25"/>
     </row>
@@ -6892,19 +7522,19 @@
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" t="s">
         <v>196</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>197</v>
-      </c>
-      <c r="G33" t="s">
-        <v>198</v>
       </c>
       <c r="H33" s="25"/>
     </row>
@@ -6912,19 +7542,19 @@
       <c r="A34" s="25"/>
       <c r="B34" s="26"/>
       <c r="C34" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" t="s">
         <v>195</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>196</v>
       </c>
-      <c r="F34" t="s">
-        <v>197</v>
-      </c>
       <c r="G34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H34" s="25"/>
     </row>
@@ -6933,16 +7563,16 @@
       <c r="B35" s="26"/>
       <c r="C35" s="3"/>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" t="s">
         <v>196</v>
       </c>
-      <c r="F35" t="s">
-        <v>197</v>
-      </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H35" s="25"/>
     </row>
@@ -6951,7 +7581,7 @@
       <c r="B36" s="26"/>
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
         <v>20</v>
@@ -6960,7 +7590,7 @@
         <v>102</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H36" s="25"/>
     </row>
@@ -6968,10 +7598,10 @@
       <c r="A37" s="25"/>
       <c r="B37" s="26"/>
       <c r="C37" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
         <v>104</v>
@@ -6980,16 +7610,16 @@
         <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H37" s="25"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" t="s">
@@ -7005,7 +7635,7 @@
         <v>111</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -7013,7 +7643,7 @@
       <c r="B39" s="26"/>
       <c r="C39" s="3"/>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E39" t="s">
         <v>20</v>
@@ -7022,7 +7652,7 @@
         <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H39" s="25"/>
     </row>
@@ -7030,19 +7660,19 @@
       <c r="A40" s="25"/>
       <c r="B40" s="26"/>
       <c r="C40" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" t="s">
         <v>196</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>197</v>
-      </c>
-      <c r="G40" t="s">
-        <v>198</v>
       </c>
       <c r="H40" s="25"/>
     </row>
@@ -7050,19 +7680,19 @@
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
         <v>195</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>196</v>
       </c>
-      <c r="F41" t="s">
-        <v>197</v>
-      </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H41" s="25"/>
     </row>
@@ -7070,19 +7700,19 @@
       <c r="A42" s="25"/>
       <c r="B42" s="26"/>
       <c r="C42" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" t="s">
         <v>196</v>
       </c>
-      <c r="F42" t="s">
-        <v>197</v>
-      </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H42" s="25"/>
     </row>
@@ -7091,7 +7721,7 @@
       <c r="B43" s="26"/>
       <c r="C43" s="3"/>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
@@ -7100,7 +7730,7 @@
         <v>102</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H43" s="25"/>
     </row>
@@ -7108,10 +7738,10 @@
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E44" t="s">
         <v>104</v>
@@ -7120,16 +7750,16 @@
         <v>102</v>
       </c>
       <c r="G44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" t="s">
@@ -7145,7 +7775,7 @@
         <v>111</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -7153,7 +7783,7 @@
       <c r="B46" s="26"/>
       <c r="C46" s="3"/>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E46" t="s">
         <v>20</v>
@@ -7162,7 +7792,7 @@
         <v>102</v>
       </c>
       <c r="G46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H46" s="25"/>
     </row>
@@ -7170,19 +7800,19 @@
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="s">
         <v>196</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>197</v>
-      </c>
-      <c r="G47" t="s">
-        <v>198</v>
       </c>
       <c r="H47" s="25"/>
     </row>
@@ -7190,19 +7820,19 @@
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" t="s">
         <v>195</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>196</v>
       </c>
-      <c r="F48" t="s">
-        <v>197</v>
-      </c>
       <c r="G48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H48" s="25"/>
     </row>
@@ -7210,19 +7840,19 @@
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" t="s">
         <v>196</v>
       </c>
-      <c r="F49" t="s">
-        <v>197</v>
-      </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H49" s="25"/>
     </row>
@@ -7231,7 +7861,7 @@
       <c r="B50" s="26"/>
       <c r="C50" s="3"/>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -7240,7 +7870,7 @@
         <v>102</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H50" s="25"/>
     </row>
@@ -7248,10 +7878,10 @@
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="C51" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
         <v>104</v>
@@ -7260,16 +7890,16 @@
         <v>102</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" t="s">
@@ -7285,7 +7915,7 @@
         <v>111</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7293,7 +7923,7 @@
       <c r="B53" s="26"/>
       <c r="C53" s="3"/>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E53" t="s">
         <v>20</v>
@@ -7302,7 +7932,7 @@
         <v>102</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H53" s="25"/>
     </row>
@@ -7311,16 +7941,16 @@
       <c r="B54" s="26"/>
       <c r="C54" s="3"/>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
+        <v>195</v>
+      </c>
+      <c r="F54" t="s">
         <v>196</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>197</v>
-      </c>
-      <c r="G54" t="s">
-        <v>198</v>
       </c>
       <c r="H54" s="25"/>
     </row>
@@ -7328,19 +7958,19 @@
       <c r="A55" s="25"/>
       <c r="B55" s="26"/>
       <c r="C55" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" t="s">
         <v>195</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>196</v>
       </c>
-      <c r="F55" t="s">
-        <v>197</v>
-      </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H55" s="25"/>
     </row>
@@ -7348,19 +7978,19 @@
       <c r="A56" s="25"/>
       <c r="B56" s="26"/>
       <c r="C56" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" t="s">
         <v>196</v>
       </c>
-      <c r="F56" t="s">
-        <v>197</v>
-      </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H56" s="25"/>
     </row>
@@ -7369,7 +7999,7 @@
       <c r="B57" s="26"/>
       <c r="C57" s="3"/>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E57" t="s">
         <v>20</v>
@@ -7378,7 +8008,7 @@
         <v>102</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H57" s="25"/>
     </row>
@@ -7387,7 +8017,7 @@
       <c r="B58" s="26"/>
       <c r="C58" s="3"/>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E58" t="s">
         <v>20</v>
@@ -7396,7 +8026,7 @@
         <v>102</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H58" s="25"/>
     </row>
@@ -7405,7 +8035,7 @@
       <c r="B59" s="26"/>
       <c r="C59" s="3"/>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E59" t="s">
         <v>104</v>
@@ -7414,7 +8044,7 @@
         <v>102</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H59" s="25"/>
     </row>
@@ -7463,8 +8093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57:H60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7504,14 +8134,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -7520,10 +8150,10 @@
         <v>102</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -7531,7 +8161,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -7540,7 +8170,7 @@
         <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3" s="25"/>
     </row>
@@ -7549,7 +8179,7 @@
       <c r="B4" s="26"/>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E4" t="s">
         <v>104</v>
@@ -7558,20 +8188,20 @@
         <v>102</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -7580,10 +8210,10 @@
         <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7591,7 +8221,7 @@
       <c r="B6" s="26"/>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -7600,7 +8230,7 @@
         <v>102</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H6" s="25"/>
     </row>
@@ -7608,10 +8238,10 @@
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
         <v>104</v>
@@ -7620,20 +8250,20 @@
         <v>102</v>
       </c>
       <c r="G7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -7642,10 +8272,10 @@
         <v>102</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7655,16 +8285,16 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H9" s="25"/>
     </row>
@@ -7673,7 +8303,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -7690,10 +8320,10 @@
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
         <v>104</v>
@@ -7702,20 +8332,20 @@
         <v>102</v>
       </c>
       <c r="G11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -7724,29 +8354,29 @@
         <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H13" s="25"/>
     </row>
@@ -7755,7 +8385,7 @@
       <c r="B14" s="26"/>
       <c r="C14" s="3"/>
       <c r="D14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -7772,10 +8402,10 @@
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
         <v>104</v>
@@ -7784,20 +8414,20 @@
         <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -7806,29 +8436,29 @@
         <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H17" s="25"/>
     </row>
@@ -7837,7 +8467,7 @@
       <c r="B18" s="26"/>
       <c r="C18" s="3"/>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -7854,10 +8484,10 @@
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
@@ -7866,20 +8496,20 @@
         <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
@@ -7888,29 +8518,29 @@
         <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H21" s="25"/>
     </row>
@@ -7919,7 +8549,7 @@
       <c r="B22" s="26"/>
       <c r="C22" s="3"/>
       <c r="D22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -7928,7 +8558,7 @@
         <v>102</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H22" s="25"/>
     </row>
@@ -7936,10 +8566,10 @@
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
         <v>104</v>
@@ -7954,14 +8584,14 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
@@ -7970,29 +8600,29 @@
         <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H25" s="25"/>
     </row>
@@ -8003,16 +8633,16 @@
         <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H26" s="25"/>
     </row>
@@ -8021,7 +8651,7 @@
       <c r="B27" s="26"/>
       <c r="C27" s="3"/>
       <c r="D27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E27" t="s">
         <v>20</v>
@@ -8030,7 +8660,7 @@
         <v>102</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H27" s="25"/>
     </row>
@@ -8038,10 +8668,10 @@
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
         <v>104</v>
@@ -8050,20 +8680,20 @@
         <v>102</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
@@ -8072,29 +8702,29 @@
         <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="C30" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H30" s="25"/>
     </row>
@@ -8105,16 +8735,16 @@
         <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="25"/>
     </row>
@@ -8123,7 +8753,7 @@
       <c r="B32" s="26"/>
       <c r="C32" s="3"/>
       <c r="D32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
         <v>20</v>
@@ -8132,7 +8762,7 @@
         <v>102</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H32" s="25"/>
     </row>
@@ -8140,10 +8770,10 @@
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
@@ -8152,20 +8782,20 @@
         <v>102</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H33" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
         <v>20</v>
@@ -8174,29 +8804,29 @@
         <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
         <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H35" s="25"/>
     </row>
@@ -8204,19 +8834,19 @@
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F36" t="s">
         <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H36" s="25"/>
     </row>
@@ -8225,7 +8855,7 @@
       <c r="B37" s="26"/>
       <c r="C37" s="3"/>
       <c r="D37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -8234,7 +8864,7 @@
         <v>102</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H37" s="25"/>
     </row>
@@ -8243,7 +8873,7 @@
       <c r="B38" s="26"/>
       <c r="C38" s="3"/>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E38" t="s">
         <v>104</v>
@@ -8252,23 +8882,23 @@
         <v>102</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -8276,7 +8906,7 @@
       <c r="B40" s="26"/>
       <c r="C40" s="3"/>
       <c r="D40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -8285,7 +8915,7 @@
         <v>102</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H40" s="25"/>
     </row>
@@ -8293,10 +8923,10 @@
       <c r="A41" s="25"/>
       <c r="B41" s="26"/>
       <c r="C41" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
         <v>104</v>
@@ -8305,42 +8935,42 @@
         <v>102</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="25"/>
       <c r="B43" s="26"/>
       <c r="C43" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F43" t="s">
         <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H43" s="25"/>
     </row>
@@ -8348,19 +8978,19 @@
       <c r="A44" s="25"/>
       <c r="B44" s="26"/>
       <c r="C44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E44" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F44" t="s">
         <v>19</v>
       </c>
       <c r="G44" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H44" s="25"/>
     </row>
@@ -8369,7 +8999,7 @@
       <c r="B45" s="26"/>
       <c r="C45" s="3"/>
       <c r="D45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E45" t="s">
         <v>20</v>
@@ -8378,7 +9008,7 @@
         <v>102</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H45" s="25"/>
     </row>
@@ -8386,10 +9016,10 @@
       <c r="A46" s="25"/>
       <c r="B46" s="26"/>
       <c r="C46" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E46" t="s">
         <v>104</v>
@@ -8398,42 +9028,42 @@
         <v>102</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="25"/>
       <c r="B48" s="26"/>
       <c r="C48" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F48" t="s">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H48" s="25"/>
     </row>
@@ -8441,19 +9071,19 @@
       <c r="A49" s="25"/>
       <c r="B49" s="26"/>
       <c r="C49" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D49" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H49" s="25"/>
     </row>
@@ -8462,7 +9092,7 @@
       <c r="B50" s="26"/>
       <c r="C50" s="3"/>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -8471,7 +9101,7 @@
         <v>102</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H50" s="25"/>
     </row>
@@ -8479,10 +9109,10 @@
       <c r="A51" s="25"/>
       <c r="B51" s="26"/>
       <c r="C51" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E51" t="s">
         <v>104</v>
@@ -8491,42 +9121,42 @@
         <v>102</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="25"/>
       <c r="B53" s="26"/>
       <c r="C53" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F53" t="s">
         <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H53" s="25"/>
     </row>
@@ -8534,19 +9164,19 @@
       <c r="A54" s="25"/>
       <c r="B54" s="26"/>
       <c r="C54" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F54" t="s">
         <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H54" s="25"/>
     </row>
@@ -8555,7 +9185,7 @@
       <c r="B55" s="26"/>
       <c r="C55" s="3"/>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E55" t="s">
         <v>20</v>
@@ -8564,7 +9194,7 @@
         <v>102</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H55" s="25"/>
     </row>
@@ -8573,7 +9203,7 @@
       <c r="B56" s="26"/>
       <c r="C56" s="3"/>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E56" t="s">
         <v>104</v>
@@ -8582,53 +9212,53 @@
         <v>102</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F57" t="s">
         <v>19</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="25"/>
       <c r="B58" s="26"/>
       <c r="C58" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D58" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F58" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H58" s="25"/>
     </row>
@@ -8637,16 +9267,16 @@
       <c r="B59" s="26"/>
       <c r="C59" s="3"/>
       <c r="D59" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E59" t="s">
         <v>20</v>
       </c>
       <c r="F59" t="s">
+        <v>329</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H59" s="25"/>
     </row>
@@ -8655,13 +9285,13 @@
       <c r="B60" s="26"/>
       <c r="C60" s="3"/>
       <c r="D60" t="s">
+        <v>314</v>
+      </c>
+      <c r="E60" t="s">
         <v>315</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>316</v>
-      </c>
-      <c r="F60" t="s">
-        <v>317</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>54</v>
@@ -8729,7 +9359,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8771,14 +9401,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" t="s">
         <v>117</v>
@@ -8787,10 +9417,10 @@
         <v>19</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8798,7 +9428,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
         <v>117</v>
@@ -8807,7 +9437,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H3" s="25"/>
     </row>
@@ -8816,16 +9446,16 @@
       <c r="B4" s="26"/>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H4" s="25"/>
     </row>
@@ -8839,25 +9469,25 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
         <v>117</v>
@@ -8866,10 +9496,10 @@
         <v>19</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8877,7 +9507,7 @@
       <c r="B7" s="26"/>
       <c r="C7" s="3"/>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
         <v>117</v>
@@ -8886,7 +9516,7 @@
         <v>19</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H7" s="25"/>
     </row>
@@ -8895,16 +9525,16 @@
       <c r="B8" s="26"/>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="F8" t="s">
+        <v>329</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H8" s="25"/>
     </row>
@@ -8918,25 +9548,25 @@
         <v>100</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>366</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>367</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
         <v>117</v>
@@ -8945,20 +9575,20 @@
         <v>19</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
         <v>117</v>
@@ -8967,7 +9597,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H11" s="25"/>
     </row>
@@ -8976,16 +9606,16 @@
       <c r="B12" s="26"/>
       <c r="C12" s="3"/>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
+        <v>329</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H12" s="25"/>
     </row>
@@ -8999,25 +9629,25 @@
         <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="D14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
         <v>117</v>
@@ -9026,20 +9656,20 @@
         <v>19</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E15" t="s">
         <v>117</v>
@@ -9048,7 +9678,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H15" s="25"/>
     </row>
@@ -9057,16 +9687,16 @@
       <c r="B16" s="26"/>
       <c r="C16" s="3"/>
       <c r="D16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H16" s="25"/>
     </row>
@@ -9080,25 +9710,25 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E18" t="s">
         <v>117</v>
@@ -9107,20 +9737,20 @@
         <v>19</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="C19" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E19" t="s">
         <v>117</v>
@@ -9129,7 +9759,7 @@
         <v>19</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H19" s="25"/>
     </row>
@@ -9138,16 +9768,16 @@
       <c r="B20" s="26"/>
       <c r="C20" s="3"/>
       <c r="D20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H20" s="25"/>
     </row>
@@ -9161,25 +9791,25 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E22" t="s">
         <v>117</v>
@@ -9188,20 +9818,20 @@
         <v>19</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" t="s">
         <v>117</v>
@@ -9210,7 +9840,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H23" s="25"/>
     </row>
@@ -9219,16 +9849,16 @@
       <c r="B24" s="26"/>
       <c r="C24" s="3"/>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E24" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H24" s="25"/>
     </row>
@@ -9236,57 +9866,57 @@
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="D25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E26" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="D27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" t="s">
         <v>357</v>
       </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>358</v>
-      </c>
       <c r="G27" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H27" s="25"/>
     </row>
@@ -9294,57 +9924,57 @@
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="D28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F28" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E29" t="s">
         <v>20</v>
       </c>
       <c r="F29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="25"/>
       <c r="B30" s="26"/>
       <c r="D30" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F30" t="s">
+        <v>329</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="H30" s="25"/>
     </row>
@@ -9390,8 +10020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9432,26 +10062,26 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" t="s">
         <v>373</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>374</v>
       </c>
-      <c r="F2" t="s">
-        <v>375</v>
-      </c>
       <c r="G2" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9459,16 +10089,16 @@
       <c r="B3" s="26"/>
       <c r="C3" s="3"/>
       <c r="D3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" t="s">
         <v>374</v>
       </c>
-      <c r="F3" t="s">
-        <v>375</v>
-      </c>
       <c r="G3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H3" s="25"/>
     </row>
@@ -9477,41 +10107,41 @@
       <c r="B4" s="26"/>
       <c r="C4" s="3"/>
       <c r="D4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="E4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" t="s">
         <v>373</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>374</v>
       </c>
-      <c r="F5" t="s">
-        <v>375</v>
-      </c>
       <c r="G5" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9519,16 +10149,16 @@
       <c r="B6" s="26"/>
       <c r="C6" s="3"/>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" t="s">
         <v>374</v>
       </c>
-      <c r="F6" t="s">
-        <v>375</v>
-      </c>
       <c r="G6" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H6" s="25"/>
     </row>
@@ -9537,41 +10167,41 @@
       <c r="B7" s="26"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>374</v>
       </c>
-      <c r="F8" t="s">
-        <v>375</v>
-      </c>
       <c r="G8" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -9579,16 +10209,16 @@
       <c r="B9" s="26"/>
       <c r="C9" s="3"/>
       <c r="D9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="E9" t="s">
-        <v>374</v>
-      </c>
-      <c r="F9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="H9" s="25"/>
     </row>
@@ -9597,16 +10227,16 @@
       <c r="B10" s="26"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" t="s">
         <v>374</v>
       </c>
-      <c r="F10" t="s">
-        <v>375</v>
-      </c>
       <c r="G10" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H10" s="25"/>
     </row>
@@ -9614,41 +10244,41 @@
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="D11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E11" t="s">
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>392</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>393</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E12" t="s">
         <v>373</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>374</v>
       </c>
-      <c r="F12" t="s">
-        <v>375</v>
-      </c>
       <c r="G12" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9656,16 +10286,16 @@
       <c r="B13" s="26"/>
       <c r="C13" s="3"/>
       <c r="D13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="E13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F13" t="s">
-        <v>375</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>395</v>
       </c>
       <c r="H13" s="25"/>
     </row>
@@ -9674,16 +10304,16 @@
       <c r="B14" s="26"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E14" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" t="s">
         <v>374</v>
       </c>
-      <c r="F14" t="s">
-        <v>375</v>
-      </c>
       <c r="G14" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H14" s="25"/>
     </row>
@@ -9691,41 +10321,41 @@
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="D15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E15" t="s">
         <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>396</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>397</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E16" t="s">
         <v>373</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>374</v>
       </c>
-      <c r="F16" t="s">
-        <v>375</v>
-      </c>
       <c r="G16" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9733,16 +10363,16 @@
       <c r="B17" s="26"/>
       <c r="C17" s="3"/>
       <c r="D17" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" t="s">
+        <v>373</v>
+      </c>
+      <c r="F17" t="s">
+        <v>374</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="E17" t="s">
-        <v>374</v>
-      </c>
-      <c r="F17" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="H17" s="25"/>
     </row>
@@ -9751,16 +10381,16 @@
       <c r="B18" s="26"/>
       <c r="C18" s="3"/>
       <c r="D18" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" t="s">
         <v>374</v>
       </c>
-      <c r="F18" t="s">
-        <v>375</v>
-      </c>
       <c r="G18" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H18" s="25"/>
     </row>
@@ -9768,41 +10398,41 @@
       <c r="A19" s="25"/>
       <c r="B19" s="26"/>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E19" t="s">
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H19" s="25"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E20" t="s">
         <v>373</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>374</v>
       </c>
-      <c r="F20" t="s">
-        <v>375</v>
-      </c>
       <c r="G20" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9810,16 +10440,16 @@
       <c r="B21" s="26"/>
       <c r="C21" s="3"/>
       <c r="D21" t="s">
+        <v>386</v>
+      </c>
+      <c r="E21" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" t="s">
+        <v>374</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="E21" t="s">
-        <v>374</v>
-      </c>
-      <c r="F21" t="s">
-        <v>375</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>388</v>
       </c>
       <c r="H21" s="25"/>
     </row>
@@ -9828,16 +10458,16 @@
       <c r="B22" s="26"/>
       <c r="C22" s="3"/>
       <c r="D22" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E22" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" t="s">
         <v>374</v>
       </c>
-      <c r="F22" t="s">
-        <v>375</v>
-      </c>
       <c r="G22" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H22" s="25"/>
     </row>
@@ -9845,41 +10475,41 @@
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="D23" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" s="26" t="s">
         <v>404</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>405</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" t="s">
         <v>373</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>374</v>
       </c>
-      <c r="F24" t="s">
-        <v>375</v>
-      </c>
       <c r="G24" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9887,16 +10517,16 @@
       <c r="B25" s="26"/>
       <c r="C25" s="3"/>
       <c r="D25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" t="s">
+        <v>374</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>394</v>
-      </c>
-      <c r="E25" t="s">
-        <v>374</v>
-      </c>
-      <c r="F25" t="s">
-        <v>375</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>395</v>
       </c>
       <c r="H25" s="25"/>
     </row>
@@ -9905,16 +10535,16 @@
       <c r="B26" s="26"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E26" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" t="s">
         <v>374</v>
       </c>
-      <c r="F26" t="s">
-        <v>375</v>
-      </c>
       <c r="G26" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H26" s="25"/>
     </row>
@@ -9922,41 +10552,41 @@
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="D27" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>406</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>407</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" t="s">
         <v>373</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>374</v>
       </c>
-      <c r="F28" t="s">
-        <v>375</v>
-      </c>
       <c r="G28" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9964,16 +10594,16 @@
       <c r="B29" s="26"/>
       <c r="C29" s="3"/>
       <c r="D29" t="s">
+        <v>397</v>
+      </c>
+      <c r="E29" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" t="s">
+        <v>374</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>398</v>
-      </c>
-      <c r="E29" t="s">
-        <v>374</v>
-      </c>
-      <c r="F29" t="s">
-        <v>375</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="H29" s="25"/>
     </row>
@@ -9982,16 +10612,16 @@
       <c r="B30" s="26"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E30" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" t="s">
         <v>374</v>
       </c>
-      <c r="F30" t="s">
-        <v>375</v>
-      </c>
       <c r="G30" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H30" s="25"/>
     </row>
@@ -9999,16 +10629,16 @@
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="D31" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H31" s="25"/>
     </row>
@@ -10048,4 +10678,1413 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10" style="30" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="22" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="D3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="D4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0.78</v>
+      </c>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="D5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="G5" s="31">
+        <v>0.06</v>
+      </c>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>529</v>
+      </c>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="D7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="D8" t="s">
+        <v>446</v>
+      </c>
+      <c r="E8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="D9" t="s">
+        <v>447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="D10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="D12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="D13" t="s">
+        <v>452</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="D15" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" t="s">
+        <v>467</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" t="s">
+        <v>468</v>
+      </c>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="D16" t="s">
+        <v>464</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="D17" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="D18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="D19" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="H19" s="33"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="D20" t="s">
+        <v>457</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="D21" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="D22" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="D23" t="s">
+        <v>457</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" t="s">
+        <v>480</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>481</v>
+      </c>
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="D25" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="D26" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D27" t="s">
+        <v>457</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D28" t="s">
+        <v>479</v>
+      </c>
+      <c r="E28" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>481</v>
+      </c>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="D29" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="25"/>
+      <c r="B30" s="26"/>
+      <c r="D30" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="D31" t="s">
+        <v>457</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="D32" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="D33" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" t="s">
+        <v>457</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G35" t="s">
+        <v>500</v>
+      </c>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="D36" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H36" s="33"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="D37" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="D38" t="s">
+        <v>457</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D39" t="s">
+        <v>250</v>
+      </c>
+      <c r="E39" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G39" t="s">
+        <v>500</v>
+      </c>
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="D40" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="D41" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="D42" t="s">
+        <v>457</v>
+      </c>
+      <c r="E42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="25"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" t="s">
+        <v>269</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G43" t="s">
+        <v>500</v>
+      </c>
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="D44" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
+      <c r="D45" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>509</v>
+      </c>
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D46" t="s">
+        <v>457</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" t="s">
+        <v>269</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G47" t="s">
+        <v>500</v>
+      </c>
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26"/>
+      <c r="D48" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="25"/>
+      <c r="B49" s="26"/>
+      <c r="D49" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="D50" t="s">
+        <v>457</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D51" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" t="s">
+        <v>269</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G51" t="s">
+        <v>500</v>
+      </c>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>516</v>
+      </c>
+      <c r="E52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G52" t="s">
+        <v>517</v>
+      </c>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
+      <c r="D53" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="D54" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D55" t="s">
+        <v>457</v>
+      </c>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D56" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G56" t="s">
+        <v>500</v>
+      </c>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>516</v>
+      </c>
+      <c r="E57" t="s">
+        <v>269</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>517</v>
+      </c>
+      <c r="H57" s="33"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
+      <c r="D58" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H58" s="33"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
+      <c r="D59" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D60" t="s">
+        <v>457</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G60" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D61" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" t="s">
+        <v>269</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G61" t="s">
+        <v>500</v>
+      </c>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D62" t="s">
+        <v>516</v>
+      </c>
+      <c r="E62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="G62" t="s">
+        <v>517</v>
+      </c>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
+      <c r="D63" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="25"/>
+      <c r="B64" s="26"/>
+      <c r="D64" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G64" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="D65" t="s">
+        <v>528</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G65" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="H65" s="33" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
+      <c r="D66" t="s">
+        <v>530</v>
+      </c>
+      <c r="E66" t="s">
+        <v>531</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="G66" t="s">
+        <v>330</v>
+      </c>
+      <c r="H66" s="33"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="D67" t="s">
+        <v>437</v>
+      </c>
+      <c r="E67" t="s">
+        <v>373</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="H67" s="33" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="D68" t="s">
+        <v>535</v>
+      </c>
+      <c r="E68" t="s">
+        <v>536</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68" s="33"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="D69" t="s">
+        <v>537</v>
+      </c>
+      <c r="E69" t="s">
+        <v>538</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69" s="33"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="25"/>
+      <c r="B70" s="26"/>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" t="s">
+        <v>539</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" t="s">
+        <v>444</v>
+      </c>
+      <c r="H70" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="H60:H64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="H50:H54"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:B59"/>
+    <mergeCell ref="H55:H59"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="H17:H19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>